--- a/results/tra_val_results/df_train_results_2000_19_01.xlsx
+++ b/results/tra_val_results/df_train_results_2000_19_01.xlsx
@@ -637,58 +637,58 @@
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6942805051803589</v>
+        <v>0.6933525204658508</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5273069739341736</v>
+        <v>0.5342121720314026</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5314579010009766</v>
+        <v>0.532149076461792</v>
       </c>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6727524995803833</v>
+        <v>0.6699329018592834</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5970149040222168</v>
+        <v>0.5870646834373474</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5764243602752686</v>
+        <v>0.5886767506599426</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6944571733474731</v>
+        <v>0.694597601890564</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5233312249183655</v>
+        <v>0.5235404968261719</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5246872901916504</v>
+        <v>0.5244712829589844</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.680340588092804</v>
+        <v>0.6749510765075684</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5472636818885803</v>
+        <v>0.5771144032478333</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5656524300575256</v>
+        <v>0.5733101963996887</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_train_results_2000_19_01.xlsx
+++ b/results/tra_val_results/df_train_results_2000_19_01.xlsx
@@ -637,58 +637,58 @@
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6933525204658508</v>
+        <v>0.6942805051803589</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5342121720314026</v>
+        <v>0.5273069739341736</v>
       </c>
       <c r="P2" t="n">
-        <v>0.532149076461792</v>
+        <v>0.5314579010009766</v>
       </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6699329018592834</v>
+        <v>0.6727524995803833</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5870646834373474</v>
+        <v>0.5970149040222168</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5886767506599426</v>
+        <v>0.5764243602752686</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.694597601890564</v>
+        <v>0.6944571733474731</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5235404968261719</v>
+        <v>0.5233312249183655</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5244712829589844</v>
+        <v>0.5246872901916504</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6749510765075684</v>
+        <v>0.680340588092804</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5771144032478333</v>
+        <v>0.5472636818885803</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5733101963996887</v>
+        <v>0.5656524300575256</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_train_results_2000_19_01.xlsx
+++ b/results/tra_val_results/df_train_results_2000_19_01.xlsx
@@ -637,22 +637,22 @@
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6942805051803589</v>
+        <v>0.7039825320243835</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5273069739341736</v>
+        <v>0.5239589810371399</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5314579010009766</v>
+        <v>0.5159884691238403</v>
       </c>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
         <v>0.6727524995803833</v>
@@ -673,22 +673,22 @@
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6944571733474731</v>
+        <v>0.7039825320243835</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5233312249183655</v>
+        <v>0.5076375603675842</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5246872901916504</v>
+        <v>0.5150113105773926</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.680340588092804</v>
+        <v>0.6751834750175476</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5472636818885803</v>
+        <v>0.5522388219833374</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5656524300575256</v>
+        <v>0.5651419162750244</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_train_results_2000_19_01.xlsx
+++ b/results/tra_val_results/df_train_results_2000_19_01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,120 +471,125 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>d_layers</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Neuro_d</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Batch Size</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Learning Rate</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>L2 Regurlar</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Optimizer</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Patience</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>mean_best_train_loss</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>mean_best_train_accu</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>mean_best_train_AUC</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>mean_best_train_epoch_loss</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>mean_best_train_epoch_accu</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>mean_best_train_epoch_AUC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>mean_best_valid_loss</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>mean_best_valid_accu</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>mean_best_valid_AUC</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>mean_best_valid_epoch_loss</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>mean_best_valid_epoch_accu</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>mean_best_valid_epoch_AUC</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>mean_last_train_loss</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>mean_last_train_accu</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>mean_last_train_AUC</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>mean_last_valid_loss</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>mean_last_valid_accu</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>mean_last_valid_AUC</t>
         </is>
@@ -617,77 +622,80 @@
         <v>40</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>32</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0001</v>
       </c>
       <c r="K2" t="n">
         <v>0.0001</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Adam</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>25</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.7039825320243835</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.5239589810371399</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.5159884691238403</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>10</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>8</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.6727524995803833</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.5970149040222168</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.5764243602752686</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>2</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>8</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0.7039825320243835</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.5076375603675842</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.5150113105773926</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.6751834750175476</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.5522388219833374</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.5651419162750244</v>
       </c>
     </row>

--- a/results/tra_val_results/df_train_results_2000_19_01.xlsx
+++ b/results/tra_val_results/df_train_results_2000_19_01.xlsx
@@ -645,58 +645,58 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7039825320243835</v>
+        <v>0.7006579041481018</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5239589810371399</v>
+        <v>0.5028248429298401</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5159884691238403</v>
+        <v>0.5047702789306641</v>
       </c>
       <c r="R2" t="n">
         <v>10</v>
       </c>
       <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6869972944259644</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5273631811141968</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5379313826560974</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="T2" t="n">
-        <v>8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.6727524995803833</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.5970149040222168</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.5764243602752686</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7039825320243835</v>
+        <v>0.7006579041481018</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5076375603675842</v>
+        <v>0.5028248429298401</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5150113105773926</v>
+        <v>0.5047702789306641</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6751834750175476</v>
+        <v>0.6869972944259644</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5522388219833374</v>
+        <v>0.5124378204345703</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5651419162750244</v>
+        <v>0.5379313826560974</v>
       </c>
     </row>
   </sheetData>
